--- a/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>HFFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,116 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>162900</v>
+      </c>
+      <c r="F8" s="3">
         <v>75700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>74700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>74800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>73800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>70400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>146900</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -775,35 +782,41 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>137100</v>
+      </c>
+      <c r="F9" s="3">
         <v>63500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>62200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>62100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>61000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>57800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>122600</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -819,35 +832,41 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F10" s="3">
         <v>12200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>12500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>12700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>12800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>12600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>24300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,31 +1002,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>338200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>514400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>160600</v>
+      </c>
+      <c r="F17" s="3">
         <v>73500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>73300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>72500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>70300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>68200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>144000</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>-100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-338600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,64 +1254,70 @@
         <v>400</v>
       </c>
       <c r="E20" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>400</v>
       </c>
       <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-333700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,35 +1339,41 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,63 +1383,75 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-340200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2700</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>600</v>
+        <v>-500</v>
       </c>
       <c r="E24" s="3">
         <v>500</v>
@@ -1369,37 +1460,43 @@
         <v>600</v>
       </c>
       <c r="G24" s="3">
+        <v>500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>600</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-339700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="3">
         <v>1100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2600</v>
       </c>
       <c r="H26" s="3">
         <v>1800</v>
       </c>
       <c r="I26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-339900</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G27" s="3">
         <v>1000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2200</v>
       </c>
       <c r="H27" s="3">
         <v>1700</v>
       </c>
       <c r="I27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K27" s="3">
         <v>2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1854,99 @@
         <v>-400</v>
       </c>
       <c r="E32" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-400</v>
       </c>
       <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-339900</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G33" s="3">
         <v>1000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2200</v>
       </c>
       <c r="H33" s="3">
         <v>1700</v>
       </c>
       <c r="I33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K33" s="3">
         <v>2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-339900</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G35" s="3">
         <v>1000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2200</v>
       </c>
       <c r="H35" s="3">
         <v>1700</v>
       </c>
       <c r="I35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K35" s="3">
         <v>2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F41" s="3">
         <v>6800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,32 +2234,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>54200</v>
+      </c>
+      <c r="F43" s="3">
         <v>16200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>18700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>19200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>28600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>17800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,38 +2278,44 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>77500</v>
+      </c>
+      <c r="F44" s="3">
         <v>29800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>26100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>23700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>22200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>24100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,126 +2328,144 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>45600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>151400</v>
+      </c>
+      <c r="F46" s="3">
         <v>55700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>54400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>51800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>59000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>52800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>46000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>10500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>10900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>8500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2269,38 +2478,44 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>54700</v>
+      </c>
+      <c r="F48" s="3">
         <v>27200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>27700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>24700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>22700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>22300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2313,37 +2528,43 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>252500</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>593400</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>45400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>45300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>45200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>521400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>802800</v>
+      </c>
+      <c r="F54" s="3">
         <v>83100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>92800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>87700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>82500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>83800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>46000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>45900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>45900</v>
       </c>
       <c r="L54" s="3">
         <v>45900</v>
       </c>
       <c r="M54" s="3">
+        <v>45900</v>
+      </c>
+      <c r="N54" s="3">
+        <v>45900</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2878,34 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F57" s="3">
         <v>23000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>23100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>22600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>21400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>20500</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -2654,96 +2915,108 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>59200</v>
+      </c>
+      <c r="F58" s="3">
         <v>13800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>13400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>9100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>9800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>14100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -2751,76 +3024,88 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>110400</v>
+      </c>
+      <c r="F60" s="3">
         <v>38600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>39200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>34400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>33600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>38200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F61" s="3">
         <v>16500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>15300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>15700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>13200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>13400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,52 +3124,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1300</v>
+        <v>51900</v>
       </c>
       <c r="E62" s="3">
-        <v>1100</v>
+        <v>65200</v>
       </c>
       <c r="F62" s="3">
         <v>1300</v>
       </c>
       <c r="G62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>257900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>199400</v>
+      </c>
+      <c r="F66" s="3">
         <v>57700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>56800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>52700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>49100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>52600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1100</v>
       </c>
       <c r="L66" s="3">
         <v>1200</v>
       </c>
       <c r="M66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,31 +3594,37 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-324100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F72" s="3">
         <v>14500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>13100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>12100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>10400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>8200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
       </c>
       <c r="K72" s="3">
         <v>100</v>
@@ -3286,19 +3633,25 @@
         <v>0</v>
       </c>
       <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>263500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>603400</v>
+      </c>
+      <c r="F76" s="3">
         <v>25400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>36100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>35000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>33400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>31100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>44800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>44800</v>
       </c>
       <c r="K76" s="3">
         <v>44800</v>
       </c>
       <c r="L76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="M76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="N76" s="3">
         <v>44700</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-339900</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G81" s="3">
         <v>1000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>2200</v>
       </c>
       <c r="H81" s="3">
         <v>1700</v>
       </c>
       <c r="I81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K81" s="3">
         <v>2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,38 +4023,40 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>4500</v>
       </c>
       <c r="E83" s="3">
-        <v>700</v>
+        <v>4600</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
       </c>
       <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>8700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,29 +4404,29 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-94100</v>
       </c>
       <c r="E94" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-3400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4160,10 +4627,10 @@
         <v>-100</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4172,14 +4639,14 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>45800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>HFFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E8" s="3">
         <v>175800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>162900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>75700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>74800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>73800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>70400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>146900</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -788,38 +792,41 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E9" s="3">
         <v>146800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>137100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>63500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>62200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>62100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>61000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>57800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>122600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -838,38 +845,41 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E10" s="3">
         <v>29000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,17 +1025,20 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>338200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,8 +1054,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E17" s="3">
         <v>514400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>160600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>73500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>73300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>72500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>68200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>144000</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>-100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-338600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
+      <c r="Q18" s="3">
+        <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,82 +1278,86 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>400</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
       </c>
       <c r="J20" s="3">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-333700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1345,25 +1382,28 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1372,11 +1412,11 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1389,114 +1429,123 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-340200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2700</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,93 +1594,99 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-339700</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1500</v>
       </c>
       <c r="F26" s="3">
         <v>1500</v>
       </c>
       <c r="G26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-339900</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1300</v>
       </c>
       <c r="F27" s="3">
         <v>1300</v>
       </c>
       <c r="G27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1639,14 +1694,17 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,93 +1912,99 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-400</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
       </c>
       <c r="J32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-339900</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1300</v>
       </c>
       <c r="F33" s="3">
         <v>1300</v>
       </c>
       <c r="G33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -1939,14 +2012,17 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,43 +2071,46 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-339900</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1300</v>
       </c>
       <c r="F35" s="3">
         <v>1300</v>
       </c>
       <c r="G35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2039,69 +2118,75 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,49 +2226,50 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E41" s="3">
         <v>12700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>6900</v>
       </c>
       <c r="H41" s="3">
         <v>6900</v>
       </c>
       <c r="I41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J41" s="3">
         <v>5500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>400</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
       </c>
       <c r="M41" s="3">
+        <v>400</v>
+      </c>
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,35 +2330,38 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E43" s="3">
         <v>32200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,41 +2377,44 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E44" s="3">
         <v>75700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>77500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>26100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>23700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>22200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>24100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,114 +2430,123 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>4700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E46" s="3">
         <v>125300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>151400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>55700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>54400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>51800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>59000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>52800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2452,23 +2557,23 @@
         <v>2300</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>10500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,41 +2589,44 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E48" s="3">
         <v>140800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>54700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2534,26 +2642,29 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E49" s="3">
         <v>252500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>593400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,8 +2677,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,47 +2807,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>45400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>45300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>45200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,37 +2913,40 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>496300</v>
+      </c>
+      <c r="E54" s="3">
         <v>521400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>802800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>83100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>87700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>82500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>83800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>45900</v>
       </c>
       <c r="M54" s="3">
         <v>45900</v>
@@ -2829,19 +2955,22 @@
         <v>45900</v>
       </c>
       <c r="O54" s="3">
+        <v>45900</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,35 +3010,36 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E57" s="3">
         <v>36200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20500</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -2921,8 +3052,8 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -2930,96 +3061,102 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E58" s="3">
         <v>63800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>59200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -3030,85 +3167,91 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E60" s="3">
         <v>103500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>110400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1200</v>
       </c>
       <c r="L60" s="3">
         <v>1200</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E61" s="3">
         <v>98100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3130,46 +3273,49 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E62" s="3">
         <v>51900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>65200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>1100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>236800</v>
+      </c>
+      <c r="E66" s="3">
         <v>257900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>199400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1200</v>
       </c>
       <c r="L66" s="3">
         <v>1200</v>
       </c>
       <c r="M66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,49 +3771,52 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-328100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-324100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>100</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
         <v>100</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,34 +3983,37 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>259500</v>
+      </c>
+      <c r="E76" s="3">
         <v>263500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>603400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>44800</v>
       </c>
       <c r="L76" s="3">
         <v>44800</v>
@@ -3836,13 +4022,13 @@
         <v>44800</v>
       </c>
       <c r="N76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="O76" s="3">
         <v>44700</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,98 +4089,104 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-339900</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1300</v>
       </c>
       <c r="F81" s="3">
         <v>1300</v>
       </c>
       <c r="G81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -3999,14 +4194,17 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,10 +4233,10 @@
         <v>4500</v>
       </c>
       <c r="E83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F83" s="3">
         <v>4600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>700</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
@@ -4046,20 +4245,20 @@
         <v>700</v>
       </c>
       <c r="I83" s="3">
+        <v>700</v>
+      </c>
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E89" s="3">
         <v>18600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,41 +4615,42 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-94100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-3400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1400</v>
       </c>
       <c r="I94" s="3">
         <v>-1400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,13 +4848,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-100</v>
@@ -4633,7 +4867,7 @@
         <v>-100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4645,11 +4879,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,35 +5058,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E100" s="3">
         <v>73600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4851,22 +5097,25 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>45800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>HFFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E8" s="3">
         <v>104600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>175800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>162900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>75700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>74700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>74800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>70400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>146900</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -795,41 +799,44 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E9" s="3">
         <v>83900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>146800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>137100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>63500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>62200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>62100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>61000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>57800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>122600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,41 +855,44 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E10" s="3">
         <v>20700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,11 +1057,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>338200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1077,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>139800</v>
+      </c>
+      <c r="E17" s="3">
         <v>109000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>514400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>160600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>73500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>73300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>144000</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>-100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-338600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
+      <c r="R18" s="3">
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,88 +1312,92 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>400</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
       </c>
       <c r="K20" s="3">
+        <v>400</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-333700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,28 +1422,31 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
       </c>
       <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1415,11 +1455,11 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1432,120 +1472,129 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-340200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2700</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,99 +1646,105 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-339700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1500</v>
       </c>
       <c r="G26" s="3">
         <v>1500</v>
       </c>
       <c r="H26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-339900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1300</v>
       </c>
       <c r="G27" s="3">
         <v>1300</v>
       </c>
       <c r="H27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1697,14 +1752,17 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,99 +1982,105 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-400</v>
       </c>
       <c r="J32" s="3">
         <v>-400</v>
       </c>
       <c r="K32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-339900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1300</v>
       </c>
       <c r="G33" s="3">
         <v>1300</v>
       </c>
       <c r="H33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2015,14 +2088,17 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,46 +2150,49 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-339900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1300</v>
       </c>
       <c r="G35" s="3">
         <v>1300</v>
       </c>
       <c r="H35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2121,72 +2200,78 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,52 +2313,53 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E41" s="3">
         <v>8600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>6900</v>
       </c>
       <c r="I41" s="3">
         <v>6900</v>
       </c>
       <c r="J41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>400</v>
       </c>
       <c r="M41" s="3">
         <v>400</v>
       </c>
       <c r="N41" s="3">
+        <v>400</v>
+      </c>
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,38 +2423,41 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E43" s="3">
         <v>24200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,44 +2473,47 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E44" s="3">
         <v>66800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>75700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>77500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>29800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>26100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>23700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>24100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,125 +2529,134 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E46" s="3">
         <v>103500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>125300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>151400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>55700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>54400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>51800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>59000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>52800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E47" s="3">
         <v>2300</v>
@@ -2560,23 +2665,23 @@
         <v>2300</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>10500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,44 +2697,47 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E48" s="3">
         <v>140100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>140800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>54700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2645,29 +2753,32 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E49" s="3">
         <v>249800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>252500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>593400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2680,8 +2791,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,50 +2927,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>45400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>45300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>45200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,40 +3039,43 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>489900</v>
+      </c>
+      <c r="E54" s="3">
         <v>496300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>521400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>802800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>83100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>87700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>82500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>45900</v>
       </c>
       <c r="N54" s="3">
         <v>45900</v>
@@ -2958,19 +3084,22 @@
         <v>45900</v>
       </c>
       <c r="P54" s="3">
+        <v>45900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,38 +3141,39 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E57" s="3">
         <v>32800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20500</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -3055,8 +3186,8 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3064,102 +3195,108 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E58" s="3">
         <v>47600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>63800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>59200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3170,91 +3307,97 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E60" s="3">
         <v>85600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>103500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>110400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>39200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1200</v>
       </c>
       <c r="M60" s="3">
         <v>1200</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E61" s="3">
         <v>96600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>98100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3276,49 +3419,52 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E62" s="3">
         <v>50500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>65200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>1100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E66" s="3">
         <v>236800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>257900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>199400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1200</v>
       </c>
       <c r="M66" s="3">
         <v>1200</v>
       </c>
       <c r="N66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,52 +3945,55 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-328700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-328100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-324100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>100</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
         <v>100</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,37 +4169,40 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>258800</v>
+      </c>
+      <c r="E76" s="3">
         <v>259500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>263500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>603400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>44800</v>
       </c>
       <c r="M76" s="3">
         <v>44800</v>
@@ -4025,13 +4211,13 @@
         <v>44800</v>
       </c>
       <c r="O76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="P76" s="3">
         <v>44700</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,104 +4281,110 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-339900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1300</v>
       </c>
       <c r="G81" s="3">
         <v>1300</v>
       </c>
       <c r="H81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -4197,14 +4392,17 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,10 +4435,10 @@
         <v>4500</v>
       </c>
       <c r="F83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G83" s="3">
         <v>4600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>700</v>
       </c>
       <c r="H83" s="3">
         <v>700</v>
@@ -4248,20 +4447,20 @@
         <v>700</v>
       </c>
       <c r="J83" s="3">
+        <v>700</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E89" s="3">
         <v>13800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,44 +4836,45 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-94100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-3400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1400</v>
       </c>
       <c r="J94" s="3">
         <v>-1400</v>
       </c>
       <c r="K94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L94" s="3">
         <v>-5000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-100</v>
@@ -4870,7 +5104,7 @@
         <v>-100</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4882,11 +5116,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,38 +5304,41 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>73600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5100,22 +5346,25 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>45800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>HFFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,136 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>146500</v>
+      </c>
+      <c r="E8" s="3">
         <v>139900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>104600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>175800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>162900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>75700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>74700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>74800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>70400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>146900</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -802,44 +805,47 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E9" s="3">
         <v>114800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>83900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>146800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>137100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>63500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>62200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>62100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>61000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>57800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>122600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,44 +864,47 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E10" s="3">
         <v>25100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,11 +1079,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>338200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1080,8 +1099,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E17" s="3">
         <v>139800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>109000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>514400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>160600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>73500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>73300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>72500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>68200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>144000</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>-100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
+      <c r="S17" s="3">
+        <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-338600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
+      <c r="S18" s="3">
+        <v>0</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,94 +1345,98 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>400</v>
       </c>
       <c r="K20" s="3">
         <v>400</v>
       </c>
       <c r="L20" s="3">
+        <v>400</v>
+      </c>
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E21" s="3">
         <v>4800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-333700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,22 +1473,22 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
       </c>
       <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1458,11 +1497,11 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1475,126 +1514,135 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-340200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2700</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
+      <c r="S23" s="3">
+        <v>0</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,105 +1697,111 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-339700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1500</v>
       </c>
       <c r="H26" s="3">
         <v>1500</v>
       </c>
       <c r="I26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2000</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
+      <c r="S26" s="3">
+        <v>0</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-339900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1300</v>
       </c>
       <c r="H27" s="3">
         <v>1300</v>
       </c>
       <c r="I27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -1755,14 +1809,17 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
+      <c r="S27" s="3">
+        <v>0</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,105 +2051,111 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-400</v>
       </c>
       <c r="K32" s="3">
         <v>-400</v>
       </c>
       <c r="L32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-339900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1300</v>
       </c>
       <c r="H33" s="3">
         <v>1300</v>
       </c>
       <c r="I33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -2091,14 +2163,17 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
+      <c r="S33" s="3">
+        <v>0</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,49 +2228,52 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-339900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1300</v>
       </c>
       <c r="H35" s="3">
         <v>1300</v>
       </c>
       <c r="I35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -2203,75 +2281,81 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
+      <c r="S35" s="3">
+        <v>0</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,55 +2399,56 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E41" s="3">
         <v>9200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>6900</v>
       </c>
       <c r="J41" s="3">
         <v>6900</v>
       </c>
       <c r="K41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L41" s="3">
         <v>5500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7800</v>
-      </c>
-      <c r="M41" s="3">
-        <v>400</v>
       </c>
       <c r="N41" s="3">
         <v>400</v>
       </c>
       <c r="O41" s="3">
+        <v>400</v>
+      </c>
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,41 +2515,44 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E43" s="3">
         <v>25400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>18700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,47 +2568,50 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E44" s="3">
         <v>61700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>66800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>75700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>77500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>29800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>26100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>24100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2532,126 +2627,135 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E46" s="3">
         <v>101300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>103500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>125300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>151400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>55700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>54400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>51800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2659,7 +2763,7 @@
         <v>2400</v>
       </c>
       <c r="E47" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F47" s="3">
         <v>2300</v>
@@ -2668,23 +2772,23 @@
         <v>2300</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>10500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2700,47 +2804,50 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E48" s="3">
         <v>138800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>140100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>140800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>54700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2756,32 +2863,35 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>244300</v>
+      </c>
+      <c r="E49" s="3">
         <v>247000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>249800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>252500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>593400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2904,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3046,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>45400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>45300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>45200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,43 +3164,46 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>484300</v>
+      </c>
+      <c r="E54" s="3">
         <v>489900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>496300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>521400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>802800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>83100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>87700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>83800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>45900</v>
       </c>
       <c r="O54" s="3">
         <v>45900</v>
@@ -3087,19 +3212,22 @@
         <v>45900</v>
       </c>
       <c r="Q54" s="3">
+        <v>45900</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,41 +3271,42 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E57" s="3">
         <v>36300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>44200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20500</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -3189,8 +3319,8 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
@@ -3198,108 +3328,114 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E58" s="3">
         <v>38800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>47600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>63800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>59200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E59" s="3">
         <v>6800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
@@ -3310,97 +3446,103 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E60" s="3">
         <v>82000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>85600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>103500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>110400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1200</v>
       </c>
       <c r="N60" s="3">
         <v>1200</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E61" s="3">
         <v>95200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>96600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>98100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3422,52 +3564,55 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E62" s="3">
         <v>49600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>65200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>1100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>223900</v>
+      </c>
+      <c r="E66" s="3">
         <v>231000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>236800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>257900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>199400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1200</v>
       </c>
       <c r="N66" s="3">
         <v>1200</v>
       </c>
       <c r="O66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,55 +4118,58 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-327200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-328700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-328100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-324100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>100</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
         <v>100</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
+      <c r="R72" s="3">
+        <v>0</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,40 +4354,43 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>260400</v>
+      </c>
+      <c r="E76" s="3">
         <v>258800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>259500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>263500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>603400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>44800</v>
       </c>
       <c r="N76" s="3">
         <v>44800</v>
@@ -4214,13 +4399,13 @@
         <v>44800</v>
       </c>
       <c r="P76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>44700</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
+      <c r="R76" s="3">
+        <v>0</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,110 +4472,116 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-339900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1300</v>
       </c>
       <c r="H81" s="3">
         <v>1300</v>
       </c>
       <c r="I81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -4395,14 +4589,17 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
+      <c r="S81" s="3">
+        <v>0</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4620,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E83" s="3">
         <v>4500</v>
@@ -4438,10 +4636,10 @@
         <v>4500</v>
       </c>
       <c r="G83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H83" s="3">
         <v>4600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>700</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
@@ -4450,20 +4648,20 @@
         <v>700</v>
       </c>
       <c r="K83" s="3">
+        <v>700</v>
+      </c>
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>11900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,47 +5056,48 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-94100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-3400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1400</v>
       </c>
       <c r="K94" s="3">
         <v>-1400</v>
       </c>
       <c r="L94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M94" s="3">
         <v>-5000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-100</v>
@@ -5107,7 +5340,7 @@
         <v>-100</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5119,11 +5352,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,41 +5549,44 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>73600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5349,22 +5594,25 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>45800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>HFFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,143 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E8" s="3">
         <v>146500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>139900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>104600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>175800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>162900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>75700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>74700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>74800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>73800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>70400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>146900</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -808,47 +812,50 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E9" s="3">
         <v>121000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>114800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>83900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>146800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>137100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>63500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>62200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>62100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>57800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>122600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -867,47 +874,50 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E10" s="3">
         <v>25500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,11 +1102,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>338200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1102,8 +1122,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E17" s="3">
         <v>147600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>139800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>109000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>514400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>160600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>73500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>73300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>72500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>70300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>68200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>144000</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>-100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
+      <c r="T17" s="3">
+        <v>0</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-338600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
+      <c r="T18" s="3">
+        <v>0</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,100 +1379,104 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>400</v>
       </c>
       <c r="L20" s="3">
         <v>400</v>
       </c>
       <c r="M20" s="3">
+        <v>400</v>
+      </c>
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E21" s="3">
         <v>4100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-333700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1464,34 +1501,37 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
         <v>800</v>
       </c>
       <c r="F22" s="3">
+        <v>800</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>500</v>
       </c>
       <c r="I22" s="3">
         <v>500</v>
       </c>
       <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -1500,11 +1540,11 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1517,132 +1557,141 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-340200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2700</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
+      <c r="T23" s="3">
+        <v>0</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,111 +1749,117 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-339700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1500</v>
       </c>
       <c r="I26" s="3">
         <v>1500</v>
       </c>
       <c r="J26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2000</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
+      <c r="T26" s="3">
+        <v>0</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-339900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1300</v>
       </c>
       <c r="I27" s="3">
         <v>1300</v>
       </c>
       <c r="J27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -1812,14 +1867,17 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
+      <c r="T27" s="3">
+        <v>0</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,111 +2121,117 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-400</v>
       </c>
       <c r="L32" s="3">
         <v>-400</v>
       </c>
       <c r="M32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-339900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1300</v>
       </c>
       <c r="I33" s="3">
         <v>1300</v>
       </c>
       <c r="J33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2166,14 +2239,17 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
+      <c r="T33" s="3">
+        <v>0</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,52 +2307,55 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-339900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1300</v>
       </c>
       <c r="I35" s="3">
         <v>1300</v>
       </c>
       <c r="J35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2284,78 +2363,84 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
+      <c r="T35" s="3">
+        <v>0</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,58 +2486,59 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E41" s="3">
         <v>9600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>6900</v>
       </c>
       <c r="K41" s="3">
         <v>6900</v>
       </c>
       <c r="L41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M41" s="3">
         <v>5500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7800</v>
-      </c>
-      <c r="N41" s="3">
-        <v>400</v>
       </c>
       <c r="O41" s="3">
         <v>400</v>
       </c>
       <c r="P41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,44 +2608,47 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E43" s="3">
         <v>26100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>25400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>18700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,50 +2664,53 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E44" s="3">
         <v>58500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>61700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>66800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>75700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>77500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>29800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>26100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>24100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2630,132 +2726,141 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E46" s="3">
         <v>99000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>101300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>103500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>125300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>151400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>55700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>54400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>51800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>59000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>52800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2766,7 +2871,7 @@
         <v>2400</v>
       </c>
       <c r="F47" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G47" s="3">
         <v>2300</v>
@@ -2775,23 +2880,23 @@
         <v>2300</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>10500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2807,50 +2912,53 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E48" s="3">
         <v>137800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>138800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>140100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>140800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>54700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2866,35 +2974,38 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>241600</v>
+      </c>
+      <c r="E49" s="3">
         <v>244300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>247000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>249800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>252500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>593400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3018,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3058,47 +3178,47 @@
         <v>800</v>
       </c>
       <c r="E52" s="3">
+        <v>800</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>45400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>45300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>45200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,46 +3290,49 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500800</v>
+      </c>
+      <c r="E54" s="3">
         <v>484300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>489900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>496300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>521400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>802800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>83100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>87700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>83800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>45900</v>
       </c>
       <c r="P54" s="3">
         <v>45900</v>
@@ -3215,19 +3341,22 @@
         <v>45900</v>
       </c>
       <c r="R54" s="3">
+        <v>45900</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,44 +3402,45 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E57" s="3">
         <v>30200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20500</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3322,8 +3453,8 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
@@ -3331,114 +3462,120 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E58" s="3">
         <v>39000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>38800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>47600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>63800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>59200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E59" s="3">
         <v>7500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
@@ -3449,103 +3586,109 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E60" s="3">
         <v>76700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>82000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>85600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>103500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>110400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>39200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1200</v>
       </c>
       <c r="O60" s="3">
         <v>1200</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E61" s="3">
         <v>95800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>95200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>96600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>98100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3567,55 +3710,58 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E62" s="3">
         <v>47000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>51900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>65200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>1100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>238800</v>
+      </c>
+      <c r="E66" s="3">
         <v>223900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>231000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>236800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>257900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>199400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1200</v>
       </c>
       <c r="O66" s="3">
         <v>1200</v>
       </c>
       <c r="P66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,58 +4292,61 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-325600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-327200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-328700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-328100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-324100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>100</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
         <v>100</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
       <c r="R72" s="3">
         <v>0</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
+      <c r="S72" s="3">
+        <v>0</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,43 +4540,46 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E76" s="3">
         <v>260400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>258800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>259500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>263500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>603400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>44800</v>
       </c>
       <c r="O76" s="3">
         <v>44800</v>
@@ -4402,13 +4588,13 @@
         <v>44800</v>
       </c>
       <c r="Q76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="R76" s="3">
         <v>44700</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
+      <c r="S76" s="3">
+        <v>0</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,116 +4664,122 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-339900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1300</v>
       </c>
       <c r="I81" s="3">
         <v>1300</v>
       </c>
       <c r="J81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -4592,14 +4787,17 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
+      <c r="T81" s="3">
+        <v>0</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,16 +4819,17 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
         <v>4400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>4500</v>
       </c>
       <c r="F83" s="3">
         <v>4500</v>
@@ -4639,10 +4838,10 @@
         <v>4500</v>
       </c>
       <c r="H83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I83" s="3">
         <v>4600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>700</v>
       </c>
       <c r="J83" s="3">
         <v>700</v>
@@ -4651,20 +4850,20 @@
         <v>700</v>
       </c>
       <c r="L83" s="3">
+        <v>700</v>
+      </c>
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
+      <c r="T89" s="3">
+        <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,50 +5277,51 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-94100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3400</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1400</v>
       </c>
       <c r="L94" s="3">
         <v>-1400</v>
       </c>
       <c r="M94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N94" s="3">
         <v>-5000</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,13 +5549,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5331,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-100</v>
@@ -5343,7 +5577,7 @@
         <v>-100</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -5355,11 +5589,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,44 +5795,47 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>73600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5597,22 +5843,25 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>45800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>HFFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,150 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E8" s="3">
         <v>159400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>146500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>139900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>104600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>175800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>162900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>75700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>74700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>73800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>70400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>146900</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -815,50 +819,53 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E9" s="3">
         <v>130000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>121000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>114800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>83900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>146800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>137100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>63500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>62200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>62100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>61000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>57800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>122600</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -877,50 +884,53 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E10" s="3">
         <v>29400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>29000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,11 +1125,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>338200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1145,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E17" s="3">
         <v>158100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>147600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>139800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>109000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>514400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>160600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>73500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>73300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>72500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>68200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>144000</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>-100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
+      <c r="U17" s="3">
+        <v>0</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-338600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
+      <c r="U18" s="3">
+        <v>0</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,106 +1413,110 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>400</v>
       </c>
       <c r="M20" s="3">
         <v>400</v>
       </c>
       <c r="N20" s="3">
+        <v>400</v>
+      </c>
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E21" s="3">
         <v>7700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-333700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,28 +1553,28 @@
         <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F22" s="3">
         <v>800</v>
       </c>
       <c r="G22" s="3">
+        <v>800</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
       </c>
       <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
@@ -1543,11 +1583,11 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,138 +1600,147 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-340200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2700</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
+      <c r="U23" s="3">
+        <v>0</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,117 +1801,123 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-339700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1500</v>
       </c>
       <c r="J26" s="3">
         <v>1500</v>
       </c>
       <c r="K26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2000</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
+      <c r="U26" s="3">
+        <v>0</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-339900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1300</v>
       </c>
       <c r="J27" s="3">
         <v>1300</v>
       </c>
       <c r="K27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -1870,14 +1925,17 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
+      <c r="U27" s="3">
+        <v>0</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,117 +2191,123 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-400</v>
       </c>
       <c r="M32" s="3">
         <v>-400</v>
       </c>
       <c r="N32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-339900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1300</v>
       </c>
       <c r="J33" s="3">
         <v>1300</v>
       </c>
       <c r="K33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -2242,14 +2315,17 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
+      <c r="U33" s="3">
+        <v>0</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,55 +2386,58 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-339900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1300</v>
       </c>
       <c r="J35" s="3">
         <v>1300</v>
       </c>
       <c r="K35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -2366,81 +2445,87 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
+      <c r="U35" s="3">
+        <v>0</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,61 +2573,62 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E41" s="3">
         <v>11300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>6900</v>
       </c>
       <c r="L41" s="3">
         <v>6900</v>
       </c>
       <c r="M41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N41" s="3">
         <v>5500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7800</v>
-      </c>
-      <c r="O41" s="3">
-        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>400</v>
       </c>
       <c r="Q41" s="3">
+        <v>400</v>
+      </c>
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
+      <c r="T41" s="3">
+        <v>0</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,47 +2701,50 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E43" s="3">
         <v>31400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2667,53 +2760,56 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E44" s="3">
         <v>55900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>58500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>66800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>75700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>77500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>29800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>26100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>23700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>22200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>24100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,138 +2825,147 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>45600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E46" s="3">
         <v>103900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>99000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>101300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>103500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>125300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>151400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>55700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>54400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>51800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>59000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>52800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>46000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2874,7 +2979,7 @@
         <v>2400</v>
       </c>
       <c r="G47" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H47" s="3">
         <v>2300</v>
@@ -2883,23 +2988,23 @@
         <v>2300</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>10500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2915,53 +3020,56 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E48" s="3">
         <v>152000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>137800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>138800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>140100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>140800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>54700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2977,38 +3085,41 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>238900</v>
+      </c>
+      <c r="E49" s="3">
         <v>241600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>244300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>247000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>249800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>252500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>593400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3021,8 +3132,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,59 +3286,62 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
         <v>800</v>
       </c>
       <c r="F52" s="3">
+        <v>800</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>45400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>45300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>45200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,49 +3416,52 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>507200</v>
+      </c>
+      <c r="E54" s="3">
         <v>500800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>484300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>489900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>496300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>521400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>802800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>83100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>87700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>83800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46000</v>
-      </c>
-      <c r="P54" s="3">
-        <v>45900</v>
       </c>
       <c r="Q54" s="3">
         <v>45900</v>
@@ -3344,19 +3470,22 @@
         <v>45900</v>
       </c>
       <c r="S54" s="3">
+        <v>45900</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,47 +3533,48 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E57" s="3">
         <v>38000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20500</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -3456,8 +3587,8 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
@@ -3465,120 +3596,126 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E58" s="3">
         <v>33000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>39000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>38800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>47600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>63800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>59200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E59" s="3">
         <v>8300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
@@ -3589,109 +3726,115 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E60" s="3">
         <v>79300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>76700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>82000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>85600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>103500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>110400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1200</v>
       </c>
       <c r="P60" s="3">
         <v>1200</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E61" s="3">
         <v>93700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>95800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>95200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>96600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>98100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3713,58 +3856,61 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E62" s="3">
         <v>61300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>47000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>49600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>51900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>65200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>1100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
+      <c r="S62" s="3">
+        <v>1100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>245500</v>
+      </c>
+      <c r="E66" s="3">
         <v>238800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>223900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>231000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>236800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>257900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>199400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1200</v>
       </c>
       <c r="P66" s="3">
         <v>1200</v>
       </c>
       <c r="Q66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,61 +4466,64 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-322000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-325600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-327200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-328700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-328100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-324100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>100</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
       <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
         <v>100</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
+      <c r="T72" s="3">
+        <v>0</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,46 +4726,49 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>261700</v>
+      </c>
+      <c r="E76" s="3">
         <v>262000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>260400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>258800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>259500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>263500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>603400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>44800</v>
       </c>
       <c r="P76" s="3">
         <v>44800</v>
@@ -4591,13 +4777,13 @@
         <v>44800</v>
       </c>
       <c r="R76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="S76" s="3">
         <v>44700</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
+      <c r="T76" s="3">
+        <v>0</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,122 +4856,128 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-339900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1300</v>
       </c>
       <c r="J81" s="3">
         <v>1300</v>
       </c>
       <c r="K81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
@@ -4790,14 +4985,17 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
+      <c r="U81" s="3">
+        <v>0</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,19 +5018,20 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E83" s="3">
         <v>4600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4500</v>
       </c>
       <c r="G83" s="3">
         <v>4500</v>
@@ -4841,10 +5040,10 @@
         <v>4500</v>
       </c>
       <c r="I83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J83" s="3">
         <v>4600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>700</v>
       </c>
       <c r="K83" s="3">
         <v>700</v>
@@ -4853,20 +5052,20 @@
         <v>700</v>
       </c>
       <c r="M83" s="3">
+        <v>700</v>
+      </c>
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>10600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
+      <c r="U89" s="3">
+        <v>0</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,53 +5498,54 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-94100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-3400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1400</v>
       </c>
       <c r="M94" s="3">
         <v>-1400</v>
       </c>
       <c r="N94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O94" s="3">
         <v>-5000</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,7 +5793,7 @@
         <v>-100</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -5568,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-100</v>
@@ -5580,7 +5814,7 @@
         <v>-100</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
@@ -5592,11 +5826,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,47 +6041,50 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>73600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5846,22 +6092,25 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>45800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-100</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
+      <c r="U102" s="3">
+        <v>0</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>HFFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,157 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>215500</v>
+      </c>
+      <c r="E8" s="3">
         <v>193500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>159400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>146500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>139900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>104600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>175800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>162900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>75700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>73800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>70400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>146900</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -822,53 +826,56 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E9" s="3">
         <v>158400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>130000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>121000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>114800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>83900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>146800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>137100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>62200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>62100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>61000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>57800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>122600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,53 +894,56 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E10" s="3">
         <v>35100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>29000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,11 +1148,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>338200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,8 +1168,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>204600</v>
+      </c>
+      <c r="E17" s="3">
         <v>188300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>158100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>147600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>139800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>109000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>514400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>160600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>73500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>73300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>72500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>68200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>144000</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>-100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
+      <c r="V17" s="3">
+        <v>0</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E18" s="3">
         <v>5200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-338600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
+      <c r="V18" s="3">
+        <v>0</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,112 +1447,116 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
       </c>
       <c r="N20" s="3">
         <v>400</v>
       </c>
       <c r="O20" s="3">
+        <v>400</v>
+      </c>
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E21" s="3">
         <v>10100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-333700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,28 +1596,28 @@
         <v>700</v>
       </c>
       <c r="F22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G22" s="3">
         <v>800</v>
       </c>
       <c r="H22" s="3">
+        <v>800</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
       </c>
       <c r="K22" s="3">
         <v>500</v>
       </c>
       <c r="L22" s="3">
+        <v>500</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
@@ -1586,11 +1626,11 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,144 +1643,153 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E23" s="3">
         <v>4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-340200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2700</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
+      <c r="V23" s="3">
+        <v>0</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,123 +1853,129 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-339700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1500</v>
       </c>
       <c r="K26" s="3">
         <v>1500</v>
       </c>
       <c r="L26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2000</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
+      <c r="V26" s="3">
+        <v>0</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E27" s="3">
         <v>3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-339900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1300</v>
       </c>
       <c r="K27" s="3">
         <v>1300</v>
       </c>
       <c r="L27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
@@ -1928,14 +1983,17 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
+      <c r="V27" s="3">
+        <v>0</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,123 +2261,129 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-400</v>
       </c>
       <c r="N32" s="3">
         <v>-400</v>
       </c>
       <c r="O32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E33" s="3">
         <v>3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-339900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1300</v>
       </c>
       <c r="K33" s="3">
         <v>1300</v>
       </c>
       <c r="L33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
@@ -2318,14 +2391,17 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
+      <c r="V33" s="3">
+        <v>0</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,58 +2465,61 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E35" s="3">
         <v>3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-339900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1300</v>
       </c>
       <c r="K35" s="3">
         <v>1300</v>
       </c>
       <c r="L35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
@@ -2448,84 +2527,90 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
+      <c r="V35" s="3">
+        <v>0</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,64 +2660,65 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E41" s="3">
         <v>13400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>6900</v>
       </c>
       <c r="M41" s="3">
         <v>6900</v>
       </c>
       <c r="N41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O41" s="3">
         <v>5500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7800</v>
-      </c>
-      <c r="P41" s="3">
-        <v>400</v>
       </c>
       <c r="Q41" s="3">
         <v>400</v>
       </c>
       <c r="R41" s="3">
+        <v>400</v>
+      </c>
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
+      <c r="U41" s="3">
+        <v>0</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,50 +2794,53 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E43" s="3">
         <v>32200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>28600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,56 +2856,59 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E44" s="3">
         <v>64100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>55900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>58500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>61700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>66800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>75700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>77500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>26100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>23700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>24100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2828,144 +2924,153 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E46" s="3">
         <v>113500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>103900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>99000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>101300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>103500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>125300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>151400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>54400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>51800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>59000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>52800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2982,7 +3087,7 @@
         <v>2400</v>
       </c>
       <c r="H47" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I47" s="3">
         <v>2300</v>
@@ -2991,23 +3096,23 @@
         <v>2300</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>10500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3023,56 +3128,59 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>144300</v>
+      </c>
+      <c r="E48" s="3">
         <v>151100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>152000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>137800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>138800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>140100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>140800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>54700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3088,41 +3196,44 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>236100</v>
+      </c>
+      <c r="E49" s="3">
         <v>238900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>241600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>244300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>247000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>249800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>252500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>593400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3135,8 +3246,8 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,62 +3406,65 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>800</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
       </c>
       <c r="G52" s="3">
+        <v>800</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>45400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>45300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>45200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,52 +3542,55 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>514500</v>
+      </c>
+      <c r="E54" s="3">
         <v>507200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500800</v>
       </c>
-      <c r="F54" s="3">
-        <v>484300</v>
-      </c>
       <c r="G54" s="3">
+        <v>484200</v>
+      </c>
+      <c r="H54" s="3">
         <v>489900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>496300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>521400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>802800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>87700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>83800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>45900</v>
       </c>
       <c r="R54" s="3">
         <v>45900</v>
@@ -3473,19 +3599,22 @@
         <v>45900</v>
       </c>
       <c r="T54" s="3">
+        <v>45900</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,50 +3664,51 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E57" s="3">
         <v>43600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20500</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -3590,8 +3721,8 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
@@ -3599,126 +3730,132 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E58" s="3">
         <v>40200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>33000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>39000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>38800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>47600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>63800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>59200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
@@ -3729,115 +3866,121 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E60" s="3">
         <v>90000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>79300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>76700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>82000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>85600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>103500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>110400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>33600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1200</v>
       </c>
       <c r="Q60" s="3">
         <v>1200</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E61" s="3">
         <v>91300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>93700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>95800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>95200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>96600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>98100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3859,61 +4002,64 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E62" s="3">
         <v>61000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>61300</v>
       </c>
-      <c r="F62" s="3">
-        <v>47000</v>
-      </c>
       <c r="G62" s="3">
+        <v>46900</v>
+      </c>
+      <c r="H62" s="3">
         <v>49600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>51900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>65200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
       <c r="R62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
+      <c r="T62" s="3">
+        <v>1100</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>244700</v>
+      </c>
+      <c r="E66" s="3">
         <v>245500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>238800</v>
       </c>
-      <c r="F66" s="3">
-        <v>223900</v>
-      </c>
       <c r="G66" s="3">
+        <v>223800</v>
+      </c>
+      <c r="H66" s="3">
         <v>231000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>236800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>257900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>199400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52600</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1200</v>
       </c>
       <c r="Q66" s="3">
         <v>1200</v>
       </c>
       <c r="R66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,64 +4640,67 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-314200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-322000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-325600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-327200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-328700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-328100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-324100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>100</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
       <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
         <v>100</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
       <c r="T72" s="3">
         <v>0</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
+      <c r="U72" s="3">
+        <v>0</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,49 +4912,52 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>269800</v>
+      </c>
+      <c r="E76" s="3">
         <v>261700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>262000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>260400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>258800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>259500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>263500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>603400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>44800</v>
       </c>
       <c r="Q76" s="3">
         <v>44800</v>
@@ -4780,13 +4966,13 @@
         <v>44800</v>
       </c>
       <c r="S76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="T76" s="3">
         <v>44700</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
+      <c r="U76" s="3">
+        <v>0</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,128 +5048,134 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E81" s="3">
         <v>3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-339900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1300</v>
       </c>
       <c r="K81" s="3">
         <v>1300</v>
       </c>
       <c r="L81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
@@ -4988,14 +5183,17 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
+      <c r="V81" s="3">
+        <v>0</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,13 +5227,13 @@
         <v>4500</v>
       </c>
       <c r="E83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F83" s="3">
         <v>4600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4500</v>
       </c>
       <c r="H83" s="3">
         <v>4500</v>
@@ -5043,10 +5242,10 @@
         <v>4500</v>
       </c>
       <c r="J83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K83" s="3">
         <v>4600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>700</v>
       </c>
       <c r="L83" s="3">
         <v>700</v>
@@ -5055,20 +5254,20 @@
         <v>700</v>
       </c>
       <c r="N83" s="3">
+        <v>700</v>
+      </c>
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
+      <c r="V89" s="3">
+        <v>0</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,56 +5719,57 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-94100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-3400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1400</v>
       </c>
       <c r="N94" s="3">
         <v>-1400</v>
       </c>
       <c r="O94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P94" s="3">
         <v>-5000</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5796,7 +6030,7 @@
         <v>-100</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5805,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-100</v>
@@ -5817,7 +6051,7 @@
         <v>-100</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -5829,11 +6063,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,50 +6287,53 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E100" s="3">
         <v>4600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>73600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6095,22 +6341,25 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>45800</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
+      <c r="V102" s="3">
+        <v>0</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>HFFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -680,214 +680,241 @@
     <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>300700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>299600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>278200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>228400</v>
+      </c>
+      <c r="H8" s="3">
         <v>215500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="I8" s="3">
         <v>193500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="J8" s="3">
         <v>159400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="K8" s="3">
         <v>146500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>139900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>104600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>175800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>162900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>75700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>74700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="3">
         <v>74800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="S8" s="3">
         <v>73800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <v>70400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="U8" s="3">
         <v>146900</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>249200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>247100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>227500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>183400</v>
+      </c>
+      <c r="H9" s="3">
         <v>173600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="I9" s="3">
         <v>158400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="J9" s="3">
         <v>130000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="K9" s="3">
         <v>121000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>114800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>83900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>146800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>137100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>63500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>62200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
         <v>62100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="S9" s="3">
         <v>61000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="T9" s="3">
         <v>57800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="U9" s="3">
         <v>122600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,65 +924,77 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>52500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H10" s="3">
         <v>41900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="I10" s="3">
         <v>35100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="J10" s="3">
         <v>29400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="K10" s="3">
         <v>25500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>25100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>20700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>29000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>25800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>12200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
         <v>12500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="R10" s="3">
         <v>12700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="S10" s="3">
         <v>12800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="T10" s="3">
         <v>12600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="U10" s="3">
         <v>24300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,8 +1004,20 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1042,12 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1114,20 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1194,20 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1151,37 +1230,37 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>338200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1195,8 +1274,20 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1354,20 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,135 +1389,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>303800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>292900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>267900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>216400</v>
+      </c>
+      <c r="H17" s="3">
         <v>204600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="I17" s="3">
         <v>188300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="J17" s="3">
         <v>158100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="K17" s="3">
         <v>147600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>139800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>109000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>514400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>160600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>73500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>73300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="R17" s="3">
         <v>72500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="S17" s="3">
         <v>70300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="T17" s="3">
         <v>68200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="U17" s="3">
         <v>144000</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>-100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H18" s="3">
         <v>10900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="I18" s="3">
         <v>5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>-4400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>-338600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>2300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3500</v>
       </c>
       <c r="P18" s="3">
         <v>2200</v>
       </c>
       <c r="Q18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U18" s="3">
         <v>2900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
@@ -1422,8 +1541,20 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,67 +1579,71 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>500</v>
       </c>
       <c r="N20" s="3">
         <v>400</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>700</v>
       </c>
       <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>400</v>
+      </c>
+      <c r="S20" s="3">
+        <v>400</v>
+      </c>
+      <c r="T20" s="3">
+        <v>700</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1516,59 +1651,71 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>16600</v>
+      </c>
+      <c r="H21" s="3">
         <v>16100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="I21" s="3">
         <v>10100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
         <v>7700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="K21" s="3">
         <v>4100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>4800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>-333700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>7000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="R21" s="3">
         <v>3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>4400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,203 +1731,239 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H23" s="3">
         <v>10800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>-5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>-340200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="3">
         <v>2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="U23" s="3">
         <v>2700</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="K24" s="3">
         <v>-2800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>-1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
@@ -1788,8 +1971,20 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +2051,180 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H26" s="3">
         <v>8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
         <v>3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>-339700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="U26" s="3">
         <v>2000</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H27" s="3">
         <v>7900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
         <v>3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>-339900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="T27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="U27" s="3">
         <v>2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2291,20 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2371,20 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2451,20 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,67 +2531,79 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-500</v>
       </c>
       <c r="N32" s="3">
         <v>-400</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-700</v>
       </c>
       <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-700</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2332,76 +2611,100 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H33" s="3">
         <v>7900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
         <v>3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>-339900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="U33" s="3">
         <v>2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2771,185 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H35" s="3">
         <v>7900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
         <v>3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>-339900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="U35" s="3">
         <v>2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2974,12 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +3004,92 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>16400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="H41" s="3">
         <v>15500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="I41" s="3">
         <v>13400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="J41" s="3">
         <v>11300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="K41" s="3">
         <v>9600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>9200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>8600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>12700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>14500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>6900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="R41" s="3">
         <v>6900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="S41" s="3">
         <v>5500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="T41" s="3">
         <v>7800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,469 +3156,553 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>43600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>44200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>36500</v>
+      </c>
+      <c r="H43" s="3">
         <v>35100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="I43" s="3">
         <v>32200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="J43" s="3">
         <v>31400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="K43" s="3">
         <v>26100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>25400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>24200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>32200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>54200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>16200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="Q43" s="3">
         <v>18700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="R43" s="3">
         <v>19200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="S43" s="3">
         <v>28600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="T43" s="3">
         <v>17800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>132500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>130200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>114800</v>
+      </c>
+      <c r="G44" s="3">
+        <v>102700</v>
+      </c>
+      <c r="H44" s="3">
         <v>77200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="I44" s="3">
         <v>64100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="J44" s="3">
         <v>55900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="K44" s="3">
         <v>58500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>61700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>66800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>75700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>77500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>29800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>26100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="R44" s="3">
         <v>23700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="S44" s="3">
         <v>22200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="T44" s="3">
         <v>24100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="J45" s="3">
         <v>5400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="K45" s="3">
         <v>4800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>5000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>4700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>5100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="S45" s="3">
         <v>2800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="T45" s="3">
         <v>3100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="U45" s="3">
         <v>45600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>204900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>202600</v>
+      </c>
+      <c r="F46" s="3">
+        <v>183800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>159600</v>
+      </c>
+      <c r="H46" s="3">
         <v>130500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="I46" s="3">
         <v>113500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="J46" s="3">
         <v>103900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="K46" s="3">
         <v>99000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>101300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>103500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>125300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>151400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>55700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>54400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="R46" s="3">
         <v>51800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="S46" s="3">
         <v>59000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="T46" s="3">
         <v>52800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="U46" s="3">
         <v>46000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E47" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="F47" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H47" s="3">
         <v>2400</v>
       </c>
       <c r="I47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M47" s="3">
         <v>2300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>2300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>2300</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>10500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="R47" s="3">
         <v>10900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="S47" s="3">
         <v>400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="T47" s="3">
         <v>8500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>156000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>159700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>157600</v>
+      </c>
+      <c r="H48" s="3">
         <v>144300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="I48" s="3">
         <v>151100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
         <v>152000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="K48" s="3">
         <v>137800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>138800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>140100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>140800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>54700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>27200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>27700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="R48" s="3">
         <v>24700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="S48" s="3">
         <v>22700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="T48" s="3">
         <v>22300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>283300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>287400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>272200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>275300</v>
+      </c>
+      <c r="H49" s="3">
         <v>236100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="I49" s="3">
         <v>238900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="J49" s="3">
         <v>241600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="K49" s="3">
         <v>244300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>247000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>249800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>252500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>593400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3273,8 +3716,20 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3796,20 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3876,100 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>1000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
+        <v>400</v>
+      </c>
+      <c r="T52" s="3">
+        <v>200</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>45400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="W52" s="3">
         <v>45300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="X52" s="3">
         <v>45200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +4036,100 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>650700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>651200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>620100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>596900</v>
+      </c>
+      <c r="H54" s="3">
         <v>514500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>507200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>500800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="K54" s="3">
         <v>484200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>489900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>496300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>521400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>802800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>83100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>92800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>87700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>82500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="T54" s="3">
         <v>83800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="U54" s="3">
         <v>46000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="V54" s="3">
         <v>45900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="W54" s="3">
         <v>45900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="X54" s="3">
         <v>45900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +4154,12 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,334 +4184,386 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>59200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>58900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>59700</v>
+      </c>
+      <c r="H57" s="3">
         <v>44500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="I57" s="3">
         <v>43600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
         <v>38000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>30200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>36300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>32800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>36200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>44200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>23000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>23100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="R57" s="3">
         <v>22600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="S57" s="3">
         <v>21400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="T57" s="3">
         <v>20500</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>69000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>76200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>63100</v>
+      </c>
+      <c r="H58" s="3">
         <v>48400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="I58" s="3">
         <v>40200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="J58" s="3">
         <v>33000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="K58" s="3">
         <v>39000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>38800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>47600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>63800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>59200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>13800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>13400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="R58" s="3">
         <v>9100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="S58" s="3">
         <v>9800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="T58" s="3">
         <v>14100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>36100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>36800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>32500</v>
+      </c>
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>6100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>8300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>7500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>6800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>5200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>7000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>2700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="T59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>168900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>164400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>171900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>155300</v>
+      </c>
+      <c r="H60" s="3">
         <v>97800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>90000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>79300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>76700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>82000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>85600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>103500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>110400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>38600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>39200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>34400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>33600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="T60" s="3">
         <v>38200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>130100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>96500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>98000</v>
+      </c>
+      <c r="H61" s="3">
         <v>97200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="I61" s="3">
         <v>91300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="J61" s="3">
         <v>93700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="K61" s="3">
         <v>95800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>95200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>96600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>98100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>19600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>16500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
         <v>15300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="R61" s="3">
         <v>15700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="S61" s="3">
         <v>13200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="T61" s="3">
         <v>13400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4005,76 +4576,100 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>53000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>52500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>48700</v>
+      </c>
+      <c r="H62" s="3">
         <v>46200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="I62" s="3">
         <v>61000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="J62" s="3">
         <v>61300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="K62" s="3">
         <v>46900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>49600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>50500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>51900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>65200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="T62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="X62" s="3">
         <v>1100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4736,20 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4816,20 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4896,100 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>355400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>352100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>325700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>306000</v>
+      </c>
+      <c r="H66" s="3">
         <v>244700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>245500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>238800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>223800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>231000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>236800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>257900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>199400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>57700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>56800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>52700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>49100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>52600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="Y66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +5014,12 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +5086,20 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +5166,20 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +5246,20 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +5326,100 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-302500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-298600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-303200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-306300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-314200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-322000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-325600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-327200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-328700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-328100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-324100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>15800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>14500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>13100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>12100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>10400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>8200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>100</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
         <v>100</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5486,20 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5566,20 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5646,100 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>295300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>299100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>294400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>290900</v>
+      </c>
+      <c r="H76" s="3">
         <v>269800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>261700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>262000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>260400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>258800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>259500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>263500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>603400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>25400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>36100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>35000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>33400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>31100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="U76" s="3">
         <v>44800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="V76" s="3">
         <v>44800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="W76" s="3">
         <v>44800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="X76" s="3">
         <v>44700</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5806,185 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H81" s="3">
         <v>7900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
         <v>3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>-339900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="U81" s="3">
         <v>2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,22 +6009,26 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4500</v>
+        <v>6400</v>
       </c>
       <c r="E83" s="3">
-        <v>4500</v>
+        <v>6100</v>
       </c>
       <c r="F83" s="3">
-        <v>4600</v>
+        <v>5800</v>
       </c>
       <c r="G83" s="3">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="H83" s="3">
         <v>4500</v>
@@ -5242,52 +6037,64 @@
         <v>4500</v>
       </c>
       <c r="J83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L83" s="3">
         <v>4500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O83" s="3">
         <v>4600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="S83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +6161,20 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +6241,20 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +6321,20 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +6401,20 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6481,100 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="I89" s="3">
         <v>2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="J89" s="3">
         <v>10600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>11900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>13800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>18600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="R89" s="3">
         <v>2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="S89" s="3">
         <v>3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="T89" s="3">
         <v>8700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="V89" s="3">
         <v>3600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,67 +6599,71 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>500</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
+        <v>500</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>-1300</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+        <v>-900</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5788,8 +6671,20 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6751,20 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6831,100 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="I94" s="3">
         <v>-5200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-94100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>7600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-3400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="R94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="S94" s="3">
         <v>-1400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="T94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,13 +6949,17 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-100</v>
@@ -6033,61 +6968,73 @@
         <v>-100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J96" s="3">
         <v>-100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +7101,20 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +7181,20 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +7261,100 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>11500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>26500</v>
+      </c>
+      <c r="H100" s="3">
         <v>6100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="I100" s="3">
         <v>4600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="J100" s="3">
         <v>-8500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-11100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-17900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>73600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>-4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>3900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="S100" s="3">
         <v>-4400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="T100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>45800</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +7421,96 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="I102" s="3">
         <v>2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="S102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="T102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>HFFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,190 +665,197 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>293900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>291900</v>
+      </c>
+      <c r="F8" s="3">
         <v>300700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>299600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>278200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>228400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>215500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>193500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>159400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>146500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>139900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>104600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>175800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>162900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>75700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>74700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>74800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>73800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>70400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>146900</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
@@ -856,71 +863,77 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>243700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>241200</v>
+      </c>
+      <c r="F9" s="3">
         <v>249200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>247100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>227500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>183400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>173600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>158400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>130000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>121000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>114800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>83900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>146800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>137100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>63500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>62200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>62100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>61000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>57800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>122600</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
@@ -936,71 +949,77 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50700</v>
+      </c>
+      <c r="F10" s="3">
         <v>51500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>52500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>50700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>45000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>41900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>35100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>29400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>25500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>25100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>20700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>29000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>25800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>12200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>12500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>12700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>12800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>12600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>24300</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,25 +1239,31 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1242,14 +1281,14 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>338200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,11 +1301,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>296600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>295300</v>
+      </c>
+      <c r="F17" s="3">
         <v>303800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>292900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>267900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>216400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>204600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>188300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>158100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>147600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>139800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>109000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>514400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>160600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>73500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>73300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>72500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>70300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>68200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>144000</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>-100</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>10300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>12000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>10900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-338600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2900</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,145 +1648,153 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>800</v>
+        <v>-2400</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
       </c>
       <c r="F20" s="3">
+        <v>800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-4800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>400</v>
       </c>
       <c r="Q20" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>400</v>
       </c>
       <c r="S20" s="3">
+        <v>500</v>
+      </c>
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>400</v>
+      </c>
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F21" s="3">
         <v>4100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>13200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>11300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>16600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>16100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>10100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>7700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-333700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>7000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>3500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>4400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1743,71 +1816,77 @@
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
       </c>
       <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>700</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
       </c>
       <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
+        <v>300</v>
+      </c>
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,135 +1896,147 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>9200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>10800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-340200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2700</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>600</v>
       </c>
       <c r="Q24" s="3">
         <v>500</v>
@@ -1954,37 +2045,43 @@
         <v>600</v>
       </c>
       <c r="S24" s="3">
+        <v>500</v>
+      </c>
+      <c r="T24" s="3">
+        <v>600</v>
+      </c>
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>9300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-339700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>2600</v>
       </c>
       <c r="T26" s="3">
         <v>1800</v>
       </c>
       <c r="U26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W26" s="3">
         <v>2000</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>7900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-339900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>2200</v>
       </c>
       <c r="T27" s="3">
         <v>1700</v>
       </c>
       <c r="U27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W27" s="3">
         <v>2400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-800</v>
+        <v>2400</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
       </c>
       <c r="F32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
         <v>4800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-400</v>
       </c>
       <c r="Q32" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-400</v>
       </c>
       <c r="S32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-339900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>2200</v>
       </c>
       <c r="T33" s="3">
         <v>1700</v>
       </c>
       <c r="U33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W33" s="3">
         <v>2400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-339900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>2200</v>
       </c>
       <c r="T35" s="3">
         <v>1700</v>
       </c>
       <c r="U35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W35" s="3">
         <v>2400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F41" s="3">
         <v>17800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>18800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>16400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>14800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>15500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>9200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>14500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>7800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>700</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>3</v>
+      <c r="AA41" s="3">
+        <v>0</v>
       </c>
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,68 +3347,74 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F43" s="3">
         <v>44700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>43600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>44200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>36500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>35100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>32200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>31400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>26100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>25400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>24200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>32200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>54200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>16200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>18700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>19200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>28600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>17800</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3242,74 +3427,80 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>120300</v>
+      </c>
+      <c r="F44" s="3">
         <v>132500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>130200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>114800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>102700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>77200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>64100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>55900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>58500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>61700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>66800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>75700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>77500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>29800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>26100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>23700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>22200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>24100</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3322,194 +3513,212 @@
       <c r="Z44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F45" s="3">
         <v>9900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>10000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>5100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>3100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>45600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
       <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>197900</v>
+      </c>
+      <c r="F46" s="3">
         <v>204900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>202600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>183800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>159600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>130500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>113500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>103900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>99000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>101300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>103500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>125300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>151400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>55700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>54400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>51800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>59000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>52800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>46000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E47" s="3">
         <v>2700</v>
       </c>
       <c r="F47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G47" s="3">
         <v>2700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I47" s="3">
         <v>2500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2400</v>
       </c>
       <c r="J47" s="3">
         <v>2400</v>
@@ -3521,35 +3730,35 @@
         <v>2400</v>
       </c>
       <c r="M47" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="N47" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="O47" s="3">
         <v>2300</v>
       </c>
       <c r="P47" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="Q47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>10500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>10900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>8500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3562,74 +3771,80 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>152300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>154500</v>
+      </c>
+      <c r="F48" s="3">
         <v>157200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>156000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>159700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>157600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>144300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>151100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>152000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>137800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>138800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>140100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>140800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>54700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>27200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>27700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>24700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>22700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>22300</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3642,59 +3857,65 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>275100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>279200</v>
+      </c>
+      <c r="F49" s="3">
         <v>283300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>287400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>272200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>275300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>236100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>238900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>241600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>244300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>247000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>249800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>252500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>593400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3704,11 +3925,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>700</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
       </c>
       <c r="O52" s="3">
+        <v>700</v>
+      </c>
+      <c r="P52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>45400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>45300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>45200</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>613400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>637500</v>
+      </c>
+      <c r="F54" s="3">
         <v>650700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>651200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>620100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>596900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>514500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>507200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>500800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>484200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>489900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>496300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>521400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>802800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>83100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>92800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>87700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>82500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>83800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>46000</v>
-      </c>
-      <c r="V54" s="3">
-        <v>45900</v>
-      </c>
-      <c r="W54" s="3">
-        <v>45900</v>
       </c>
       <c r="X54" s="3">
         <v>45900</v>
       </c>
       <c r="Y54" s="3">
+        <v>45900</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>45900</v>
+      </c>
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,68 +4447,70 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>57000</v>
+      </c>
+      <c r="F57" s="3">
         <v>50800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>59200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>58900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>59700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>44500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>43600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>38000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>30200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>36300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>32800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>36200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>44200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>23000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>23100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>22600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>21400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>20500</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
@@ -4259,168 +4520,180 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>3</v>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>61600</v>
+      </c>
+      <c r="F58" s="3">
         <v>80000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>69000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>76200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>63100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>48400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>40200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>33000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>39000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>38800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>47600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>63800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>59200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>13800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>13400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>9100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>9800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>14100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F59" s="3">
         <v>38200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>36100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>36800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>32500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>3</v>
@@ -4428,148 +4701,160 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>163900</v>
+      </c>
+      <c r="F60" s="3">
         <v>168900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>164400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>171900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>155300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>97800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>90000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>79300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>76700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>82000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>85600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>103500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>110400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>38600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>39200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>34400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>33600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>38200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
         <v>100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>126900</v>
+      </c>
+      <c r="F61" s="3">
         <v>128200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>130100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>96500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>98000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>97200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>91300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>93700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>95800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>95200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>96600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>98100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>19600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>16500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>15300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>15700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>13200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>13400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4588,88 +4873,100 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>50500</v>
+      </c>
+      <c r="F62" s="3">
         <v>53700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>53000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>52500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>48700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>46200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>61000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>61300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>46900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>49600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>50500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>51900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>65200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1100</v>
       </c>
       <c r="R62" s="3">
         <v>1300</v>
       </c>
       <c r="S62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U62" s="3">
         <v>1200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>300</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
       <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
         <v>1100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1100</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>326400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>345700</v>
+      </c>
+      <c r="F66" s="3">
         <v>355400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>352100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>325700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>306000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>244700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>245500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>238800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>223800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>231000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>236800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>257900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>199400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>57700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>56800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>52700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>49100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>52600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1100</v>
       </c>
       <c r="X66" s="3">
         <v>1200</v>
       </c>
       <c r="Y66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA66" s="3">
         <v>200</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,67 +5679,73 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-312400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-306500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-302500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-298600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-303200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-306300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-314200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-322000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-325600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-327200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-328700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-328100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-324100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>15800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>14500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>13100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>12100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>10400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>8200</v>
-      </c>
-      <c r="U72" s="3">
-        <v>100</v>
-      </c>
-      <c r="V72" s="3">
-        <v>0</v>
       </c>
       <c r="W72" s="3">
         <v>100</v>
@@ -5407,19 +5754,25 @@
         <v>0</v>
       </c>
       <c r="Y72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>0</v>
       </c>
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>286900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>291800</v>
+      </c>
+      <c r="F76" s="3">
         <v>295300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>299100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>294400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>290900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>269800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>261700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>262000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>260400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>258800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>259500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>263500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>603400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>25400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>36100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>35000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>33400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>31100</v>
-      </c>
-      <c r="U76" s="3">
-        <v>44800</v>
-      </c>
-      <c r="V76" s="3">
-        <v>44800</v>
       </c>
       <c r="W76" s="3">
         <v>44800</v>
       </c>
       <c r="X76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="Z76" s="3">
         <v>44700</v>
       </c>
-      <c r="Y76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA76" s="3" t="s">
-        <v>3</v>
+      <c r="AA76" s="3">
+        <v>0</v>
       </c>
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-339900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>2200</v>
       </c>
       <c r="T81" s="3">
         <v>1700</v>
       </c>
       <c r="U81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W81" s="3">
         <v>2400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,74 +6408,76 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F83" s="3">
         <v>6400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>6100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>5500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>4500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>4400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>4500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>4500</v>
       </c>
       <c r="N83" s="3">
         <v>4500</v>
       </c>
       <c r="O83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>4600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>700</v>
       </c>
       <c r="R83" s="3">
         <v>700</v>
       </c>
       <c r="S83" s="3">
+        <v>700</v>
+      </c>
+      <c r="T83" s="3">
+        <v>700</v>
+      </c>
+      <c r="U83" s="3">
         <v>600</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X83" s="3">
         <v>500</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>10100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>7400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>10600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>11900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>13800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>18600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>3500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>8700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,74 +7042,76 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>500</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-3800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1300</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-28700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-19900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-34600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-94100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>7600</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-3400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5000</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,10 +7429,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-100</v>
@@ -6980,19 +7447,19 @@
         <v>-100</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-100</v>
@@ -7001,10 +7468,10 @@
         <v>-100</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
@@ -7013,14 +7480,14 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-300</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F100" s="3">
         <v>7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>27600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>11500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>26500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>6100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-8500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-11100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-17900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>73600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-4100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-4400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1800</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>45800</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7930,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>700</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>HFFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,200 +665,204 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>292300</v>
+      </c>
+      <c r="E8" s="3">
         <v>293900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>291900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>299600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>278200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>228400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>215500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>193500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>159400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>146500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>139900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>104600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>175800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>162900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>75700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>74700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>74800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>73800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>70400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>146900</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AB8" s="3">
         <v>0</v>
@@ -869,74 +873,77 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>241600</v>
+      </c>
+      <c r="E9" s="3">
         <v>243700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>241200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>249200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>247100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>227500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>183400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>173600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>158400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>130000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>121000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>114800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>83900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>146800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>137100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>63500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>62200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>62100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>61000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>57800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>122600</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
@@ -955,74 +962,77 @@
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E10" s="3">
         <v>50200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>50700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>51500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>52500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>50700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>45000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>41900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>24300</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,28 +1262,31 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1287,11 +1307,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>338200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,8 +1327,8 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>293900</v>
+      </c>
+      <c r="E17" s="3">
         <v>296600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>295300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>303800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>292900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>267900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>216400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>204600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>188300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>158100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>147600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>139800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>514400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>160600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>73500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>73300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>72500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>70300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>68200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>144000</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>-100</v>
       </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>3</v>
+      <c r="AC17" s="3">
+        <v>0</v>
       </c>
       <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-338600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2900</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>3</v>
+      <c r="AC18" s="3">
+        <v>0</v>
       </c>
       <c r="AD18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,154 +1683,158 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
-      </c>
-      <c r="T20" s="3">
-        <v>400</v>
       </c>
       <c r="U20" s="3">
         <v>400</v>
       </c>
       <c r="V20" s="3">
+        <v>400</v>
+      </c>
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>3</v>
+      <c r="AC20" s="3">
+        <v>0</v>
       </c>
       <c r="AD20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-333700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1822,31 +1859,34 @@
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
@@ -1855,28 +1895,28 @@
         <v>700</v>
       </c>
       <c r="M22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N22" s="3">
         <v>800</v>
       </c>
       <c r="O22" s="3">
+        <v>800</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>500</v>
       </c>
       <c r="R22" s="3">
         <v>500</v>
       </c>
       <c r="S22" s="3">
+        <v>500</v>
+      </c>
+      <c r="T22" s="3">
         <v>400</v>
-      </c>
-      <c r="T22" s="3">
-        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
@@ -1885,11 +1925,11 @@
         <v>300</v>
       </c>
       <c r="W22" s="3">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
         <v>800</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1902,186 +1942,195 @@
       <c r="AB22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
+      <c r="AC22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-340200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2700</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>3</v>
+      <c r="AC23" s="3">
+        <v>0</v>
       </c>
       <c r="AD23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1100</v>
       </c>
       <c r="H24" s="3">
         <v>1100</v>
       </c>
       <c r="I24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>3</v>
+      <c r="AC24" s="3">
+        <v>0</v>
       </c>
       <c r="AD24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,165 +2215,171 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-339700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1500</v>
       </c>
       <c r="R26" s="3">
         <v>1500</v>
       </c>
       <c r="S26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2000</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>3</v>
+      <c r="AC26" s="3">
+        <v>0</v>
       </c>
       <c r="AD26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-339900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1300</v>
       </c>
       <c r="R27" s="3">
         <v>1300</v>
       </c>
       <c r="S27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T27" s="3">
         <v>1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2400</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
@@ -2332,14 +2387,17 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>3</v>
+      <c r="AC27" s="3">
+        <v>0</v>
       </c>
       <c r="AD27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,165 +2749,171 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-400</v>
       </c>
       <c r="U32" s="3">
         <v>-400</v>
       </c>
       <c r="V32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>3</v>
+      <c r="AC32" s="3">
+        <v>0</v>
       </c>
       <c r="AD32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-339900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1300</v>
       </c>
       <c r="R33" s="3">
         <v>1300</v>
       </c>
       <c r="S33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T33" s="3">
         <v>1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2400</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
@@ -2848,14 +2921,17 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>3</v>
+      <c r="AC33" s="3">
+        <v>0</v>
       </c>
       <c r="AD33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,79 +3016,82 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-339900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>1300</v>
       </c>
       <c r="R35" s="3">
         <v>1300</v>
       </c>
       <c r="S35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T35" s="3">
         <v>1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2400</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA35" s="3">
         <v>0</v>
@@ -3020,105 +3099,111 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>3</v>
+      <c r="AC35" s="3">
+        <v>0</v>
       </c>
       <c r="AD35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,85 +3267,86 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E41" s="3">
         <v>17500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6800</v>
-      </c>
-      <c r="S41" s="3">
-        <v>6900</v>
       </c>
       <c r="T41" s="3">
         <v>6900</v>
       </c>
       <c r="U41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="V41" s="3">
         <v>5500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7800</v>
-      </c>
-      <c r="W41" s="3">
-        <v>400</v>
       </c>
       <c r="X41" s="3">
         <v>400</v>
       </c>
       <c r="Y41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z41" s="3">
         <v>600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="3" t="s">
-        <v>3</v>
+      <c r="AB41" s="3">
+        <v>0</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>3</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,71 +3443,74 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E43" s="3">
         <v>43700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>43600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>31400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>32200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>54200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>18700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>28600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>17800</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,77 +3526,80 @@
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC43" s="3">
-        <v>0</v>
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E44" s="3">
         <v>110500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>120300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>132500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>130200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>114800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>102700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>77200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>64100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>55900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>58500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>61700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>66800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>75700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>77500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>29800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>26100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>23700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>22200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>24100</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3519,209 +3615,218 @@
       <c r="AB44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC44" s="3">
-        <v>0</v>
+      <c r="AC44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E45" s="3">
         <v>7700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>45600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
       <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>184700</v>
+      </c>
+      <c r="E46" s="3">
         <v>179400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>197900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>204900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>202600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>183800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>159600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>130500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>113500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>103900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>99000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>101300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>103500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>125300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>151400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>55700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>54400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>51800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>59000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>52800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>46000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="E47" s="3">
         <v>2700</v>
       </c>
       <c r="F47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G47" s="3">
         <v>2600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2700</v>
       </c>
       <c r="H47" s="3">
         <v>2700</v>
       </c>
       <c r="I47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J47" s="3">
         <v>2500</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2400</v>
       </c>
       <c r="K47" s="3">
         <v>2400</v>
@@ -3736,7 +3841,7 @@
         <v>2400</v>
       </c>
       <c r="O47" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="P47" s="3">
         <v>2300</v>
@@ -3745,23 +3850,23 @@
         <v>2300</v>
       </c>
       <c r="R47" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>10500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8500</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3777,77 +3882,80 @@
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC47" s="3">
-        <v>0</v>
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E48" s="3">
         <v>152300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>154500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>157200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>156000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>159700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>157600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>144300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>151100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>152000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>137800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>138800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>140100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>140800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>54700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>24700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22300</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,62 +3971,65 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC48" s="3">
-        <v>0</v>
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E49" s="3">
         <v>275100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>279200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>283300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>287400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>272200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>275300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>236100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>238900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>241600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>244300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>247000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>249800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>252500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>593400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3931,8 +4042,8 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,83 +4244,86 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>800</v>
       </c>
       <c r="M52" s="3">
         <v>800</v>
       </c>
       <c r="N52" s="3">
+        <v>800</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
-      </c>
-      <c r="S52" s="3">
-        <v>300</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
       </c>
       <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
         <v>400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>200</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
         <v>45400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>45300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>45200</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,73 +4422,76 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>612100</v>
+      </c>
+      <c r="E54" s="3">
         <v>613400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>637500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>650700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>651200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>620100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>596900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>514500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>507200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>484200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>489900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>496300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>521400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>802800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>83100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>92800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>87700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>82500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>83800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>46000</v>
-      </c>
-      <c r="X54" s="3">
-        <v>45900</v>
       </c>
       <c r="Y54" s="3">
         <v>45900</v>
@@ -4374,19 +4500,22 @@
         <v>45900</v>
       </c>
       <c r="AA54" s="3">
+        <v>45900</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,71 +4579,72 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E57" s="3">
         <v>58600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>59200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>58900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>59700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>44200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>23100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>22600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>21400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>20500</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
@@ -4526,8 +4657,8 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>3</v>
+      <c r="AB57" s="3">
+        <v>0</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>3</v>
@@ -4535,168 +4666,174 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E58" s="3">
         <v>52600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>61600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>80000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>69000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>76200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>63100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>48400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>40200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>39000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>38800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>47600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>63800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>59200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>14100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E59" s="3">
         <v>34100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>38200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>36100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>3</v>
+      <c r="AA59" s="3">
+        <v>0</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>3</v>
@@ -4707,157 +4844,163 @@
       <c r="AD59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E60" s="3">
         <v>145300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>163900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>168900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>164400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>171900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>155300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>97800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>90000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>76700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>82000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>85600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>103500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>110400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>39200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>33600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>38200</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1200</v>
       </c>
       <c r="X60" s="3">
         <v>1200</v>
       </c>
       <c r="Y60" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
         <v>100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>200</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E61" s="3">
         <v>125600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>126900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>128200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>130100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>96500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>98000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>97200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>91300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>93700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>95800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>95200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>96600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>98100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13400</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4879,82 +5022,85 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E62" s="3">
         <v>51000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>53700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>53000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>52500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>48700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>61000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>61300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>50500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>51900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>65200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>300</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
       <c r="X62" s="3">
         <v>0</v>
       </c>
       <c r="Y62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="3">
         <v>1100</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>3</v>
+      <c r="AA62" s="3">
+        <v>1100</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>3</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>325400</v>
+      </c>
+      <c r="E66" s="3">
         <v>326400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>345700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>355400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>352100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>325700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>306000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>244700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>245500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>238800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>223800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>231000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>236800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>257900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>199400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>57700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>56800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>52700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>52600</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1200</v>
       </c>
       <c r="X66" s="3">
         <v>1200</v>
       </c>
       <c r="Y66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>200</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,85 +5856,88 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-313300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-312400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-306500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-302500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-298600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-303200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-306300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-314200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-322000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-325600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-327200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-328700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-328100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-324100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>100</v>
       </c>
-      <c r="X72" s="3">
-        <v>0</v>
-      </c>
       <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="3">
         <v>100</v>
       </c>
-      <c r="Z72" s="3">
-        <v>0</v>
-      </c>
       <c r="AA72" s="3">
         <v>0</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>3</v>
+      <c r="AB72" s="3">
+        <v>0</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>3</v>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,70 +6212,73 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>286700</v>
+      </c>
+      <c r="E76" s="3">
         <v>286900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>291800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>295300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>299100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>294400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>290900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>269800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>261700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>262000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>260400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>258800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>259500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>263500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>603400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31100</v>
-      </c>
-      <c r="W76" s="3">
-        <v>44800</v>
       </c>
       <c r="X76" s="3">
         <v>44800</v>
@@ -6101,13 +6287,13 @@
         <v>44800</v>
       </c>
       <c r="Z76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="AA76" s="3">
         <v>44700</v>
       </c>
-      <c r="AA76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="3" t="s">
-        <v>3</v>
+      <c r="AB76" s="3">
+        <v>0</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>3</v>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,170 +6390,176 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-339900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>1300</v>
       </c>
       <c r="R81" s="3">
         <v>1300</v>
       </c>
       <c r="S81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T81" s="3">
         <v>1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2400</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA81" s="3">
         <v>0</v>
@@ -6372,14 +6567,17 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>3</v>
+      <c r="AC81" s="3">
+        <v>0</v>
       </c>
       <c r="AD81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,43 +6608,44 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="E83" s="3">
         <v>6700</v>
       </c>
       <c r="F83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G83" s="3">
         <v>6400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4500</v>
       </c>
       <c r="K83" s="3">
         <v>4500</v>
       </c>
       <c r="L83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M83" s="3">
         <v>4600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>4500</v>
       </c>
       <c r="O83" s="3">
         <v>4500</v>
@@ -6455,10 +6654,10 @@
         <v>4500</v>
       </c>
       <c r="Q83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R83" s="3">
         <v>4600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>700</v>
       </c>
       <c r="S83" s="3">
         <v>700</v>
@@ -6467,20 +6666,20 @@
         <v>700</v>
       </c>
       <c r="U83" s="3">
+        <v>700</v>
+      </c>
+      <c r="V83" s="3">
         <v>600</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3">
         <v>500</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
       <c r="Z83" s="3">
         <v>0</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E89" s="3">
         <v>12600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>3</v>
+      <c r="AC89" s="3">
+        <v>0</v>
       </c>
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,77 +7264,78 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-600</v>
+        <v>-900</v>
       </c>
       <c r="E94" s="3">
         <v>-600</v>
       </c>
       <c r="F94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-94100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7600</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-3400</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-1400</v>
       </c>
       <c r="U94" s="3">
         <v>-1400</v>
       </c>
       <c r="V94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W94" s="3">
         <v>-5000</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="3" t="s">
-        <v>3</v>
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7435,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-100</v>
@@ -7453,7 +7687,7 @@
         <v>-100</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -7462,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-100</v>
@@ -7474,7 +7708,7 @@
         <v>-100</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
@@ -7486,11 +7720,11 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-300</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,71 +8007,74 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-18800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>27600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>26500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-17900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>73600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1800</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7836,22 +8082,25 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>45800</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>3</v>
+      <c r="AC100" s="3">
+        <v>0</v>
       </c>
       <c r="AD100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
-      </c>
-      <c r="X102" s="3">
-        <v>-100</v>
       </c>
       <c r="Y102" s="3">
         <v>-100</v>
       </c>
       <c r="Z102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>700</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
-      <c r="AC102" s="3" t="s">
-        <v>3</v>
+      <c r="AC102" s="3">
+        <v>0</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HFFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>HFFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,211 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AE7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>281500</v>
+      </c>
+      <c r="E8" s="3">
         <v>292300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>293900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>291900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>299600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>278200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>228400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>215500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>193500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>159400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>146500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>139900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>104600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>175800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>162900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>75700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>74700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>74800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>73800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>70400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>146900</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -876,77 +880,80 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>230500</v>
+      </c>
+      <c r="E9" s="3">
         <v>241600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>243700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>241200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>249200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>247100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>227500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>183400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>173600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>158400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>130000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>121000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>114800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>83900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>146800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>137100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>63500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>62200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>62100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>61000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>57800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>122600</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,77 +972,80 @@
       <c r="AE9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E10" s="3">
         <v>50700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>50200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>50700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>51500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>52500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>50700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>12600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>24300</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,20 +1296,20 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1310,11 +1330,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>338200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,8 +1350,8 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>279400</v>
+      </c>
+      <c r="E17" s="3">
         <v>293900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>296600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>295300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>303800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>292900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>267900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>216400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>204600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>188300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>158100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>147600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>139800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>109000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>514400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>160600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>73500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>73300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>72500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>70300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>68200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>144000</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>-100</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
       <c r="AB17" s="3">
         <v>0</v>
       </c>
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>3</v>
+      <c r="AD17" s="3">
+        <v>0</v>
       </c>
       <c r="AE17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-338600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2900</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>3</v>
+      <c r="AD18" s="3">
+        <v>0</v>
       </c>
       <c r="AE18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,160 +1717,164 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
-      </c>
-      <c r="U20" s="3">
-        <v>400</v>
       </c>
       <c r="V20" s="3">
         <v>400</v>
       </c>
       <c r="W20" s="3">
+        <v>400</v>
+      </c>
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>3</v>
+      <c r="AD20" s="3">
+        <v>0</v>
       </c>
       <c r="AE20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E21" s="3">
         <v>7900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-333700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1862,34 +1899,37 @@
       <c r="AE21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>700</v>
@@ -1898,28 +1938,28 @@
         <v>700</v>
       </c>
       <c r="N22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O22" s="3">
         <v>800</v>
       </c>
       <c r="P22" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>500</v>
       </c>
       <c r="S22" s="3">
         <v>500</v>
       </c>
       <c r="T22" s="3">
+        <v>500</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
-      </c>
-      <c r="U22" s="3">
-        <v>300</v>
       </c>
       <c r="V22" s="3">
         <v>300</v>
@@ -1928,11 +1968,11 @@
         <v>300</v>
       </c>
       <c r="X22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y22" s="3">
         <v>800</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,192 +1985,201 @@
       <c r="AC22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
+      <c r="AD22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-340200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2700</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>3</v>
+      <c r="AD23" s="3">
+        <v>0</v>
       </c>
       <c r="AE23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1100</v>
       </c>
       <c r="I24" s="3">
         <v>1100</v>
       </c>
       <c r="J24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>700</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>3</v>
+      <c r="AD24" s="3">
+        <v>0</v>
       </c>
       <c r="AE24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,171 +2267,177 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-339700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1500</v>
       </c>
       <c r="S26" s="3">
         <v>1500</v>
       </c>
       <c r="T26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2000</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>3</v>
+      <c r="AD26" s="3">
+        <v>0</v>
       </c>
       <c r="AE26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-339900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1300</v>
       </c>
       <c r="S27" s="3">
         <v>1300</v>
       </c>
       <c r="T27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U27" s="3">
         <v>1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2400</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB27" s="3">
         <v>0</v>
@@ -2390,14 +2445,17 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>3</v>
+      <c r="AD27" s="3">
+        <v>0</v>
       </c>
       <c r="AE27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,171 +2819,177 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-400</v>
       </c>
       <c r="V32" s="3">
         <v>-400</v>
       </c>
       <c r="W32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>3</v>
+      <c r="AD32" s="3">
+        <v>0</v>
       </c>
       <c r="AE32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-339900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1300</v>
       </c>
       <c r="S33" s="3">
         <v>1300</v>
       </c>
       <c r="T33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2400</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB33" s="3">
         <v>0</v>
@@ -2924,14 +2997,17 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>3</v>
+      <c r="AD33" s="3">
+        <v>0</v>
       </c>
       <c r="AE33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,82 +3095,85 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-339900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1300</v>
       </c>
       <c r="S35" s="3">
         <v>1300</v>
       </c>
       <c r="T35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2400</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB35" s="3">
         <v>0</v>
@@ -3102,108 +3181,114 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>3</v>
+      <c r="AD35" s="3">
+        <v>0</v>
       </c>
       <c r="AE35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AE38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,88 +3354,89 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E41" s="3">
         <v>14900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6800</v>
-      </c>
-      <c r="T41" s="3">
-        <v>6900</v>
       </c>
       <c r="U41" s="3">
         <v>6900</v>
       </c>
       <c r="V41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="W41" s="3">
         <v>5500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7800</v>
-      </c>
-      <c r="X41" s="3">
-        <v>400</v>
       </c>
       <c r="Y41" s="3">
         <v>400</v>
       </c>
       <c r="Z41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA41" s="3">
         <v>600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>700</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="3" t="s">
-        <v>3</v>
+      <c r="AC41" s="3">
+        <v>0</v>
       </c>
       <c r="AD41" s="3" t="s">
         <v>3</v>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,74 +3536,77 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E43" s="3">
         <v>46200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>43600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>32200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>54200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>16200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>18700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>19200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>28600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>17800</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3529,80 +3622,83 @@
       <c r="AC43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD43" s="3">
-        <v>0</v>
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E44" s="3">
         <v>111100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>110500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>120300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>132500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>130200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>114800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>102700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>77200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>64100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>55900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>58500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>61700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>66800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>75700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>77500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>29800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>26100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>23700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>22200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>24100</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3618,192 +3714,201 @@
       <c r="AC44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD44" s="3">
-        <v>0</v>
+      <c r="AD44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="3">
         <v>12500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>45600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
       <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>197300</v>
+      </c>
+      <c r="E46" s="3">
         <v>184700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>179400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>197900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>204900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>202600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>183800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>159600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>130500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>113500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>103900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>99000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>101300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>103500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>125300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>151400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>55700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>54400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>51800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>59000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>52800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>46000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3811,25 +3916,25 @@
         <v>2400</v>
       </c>
       <c r="E47" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="F47" s="3">
         <v>2700</v>
       </c>
       <c r="G47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H47" s="3">
         <v>2600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2700</v>
       </c>
       <c r="I47" s="3">
         <v>2700</v>
       </c>
       <c r="J47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>2400</v>
       </c>
       <c r="L47" s="3">
         <v>2400</v>
@@ -3844,7 +3949,7 @@
         <v>2400</v>
       </c>
       <c r="P47" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="Q47" s="3">
         <v>2300</v>
@@ -3853,23 +3958,23 @@
         <v>2300</v>
       </c>
       <c r="S47" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>10500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8500</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3885,80 +3990,83 @@
       <c r="AC47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD47" s="3">
-        <v>0</v>
+      <c r="AD47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E48" s="3">
         <v>149100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>152300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>154500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>157200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>156000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>159700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>157600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>144300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>151100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>152000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>137800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>138800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>140100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>140800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>54700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>24700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>22300</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3974,65 +4082,68 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD48" s="3">
-        <v>0</v>
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E49" s="3">
         <v>271100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>275100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>279200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>283300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>287400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>272200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>275300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>236100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>238900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>241600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>244300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>247000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>249800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>252500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>593400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -4045,8 +4156,8 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="X49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,86 +4364,89 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E52" s="3">
         <v>4900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>800</v>
       </c>
       <c r="N52" s="3">
         <v>800</v>
       </c>
       <c r="O52" s="3">
+        <v>800</v>
+      </c>
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
-      </c>
-      <c r="T52" s="3">
-        <v>300</v>
       </c>
       <c r="U52" s="3">
         <v>300</v>
       </c>
       <c r="V52" s="3">
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
         <v>400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>200</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
       <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>45400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>45300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>45200</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,76 +4548,79 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>622800</v>
+      </c>
+      <c r="E54" s="3">
         <v>612100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>613400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>637500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>650700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>651200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>620100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>596900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>514500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>507200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>484200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>489900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>496300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>521400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>802800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>83100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>92800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>87700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>82500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>83800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>46000</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>45900</v>
       </c>
       <c r="Z54" s="3">
         <v>45900</v>
@@ -4503,19 +4629,22 @@
         <v>45900</v>
       </c>
       <c r="AB54" s="3">
+        <v>45900</v>
+      </c>
+      <c r="AC54" s="3">
         <v>200</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,74 +4710,75 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E57" s="3">
         <v>55700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>58600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>50800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>59200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>58900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>59700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>44200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>23000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>23100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>22600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>21400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>20500</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
@@ -4660,8 +4791,8 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>3</v>
+      <c r="AC57" s="3">
+        <v>0</v>
       </c>
       <c r="AD57" s="3" t="s">
         <v>3</v>
@@ -4669,174 +4800,180 @@
       <c r="AE57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E58" s="3">
         <v>50100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>52600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>61600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>80000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>69000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>76200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>63100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>40200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>39000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>38800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>47600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>63800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>59200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>14100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>200</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E59" s="3">
         <v>44200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>38200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>3</v>
+      <c r="AB59" s="3">
+        <v>0</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>3</v>
@@ -4847,163 +4984,169 @@
       <c r="AE59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>161600</v>
+      </c>
+      <c r="E60" s="3">
         <v>150000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>145300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>163900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>168900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>164400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>171900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>155300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>97800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>79300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>76700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>82000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>85600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>103500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>110400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>38600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>39200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>33600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>38200</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1200</v>
       </c>
       <c r="Y60" s="3">
         <v>1200</v>
       </c>
       <c r="Z60" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
         <v>100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>200</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E61" s="3">
         <v>124000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>125600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>126900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>128200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>130100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>96500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>98000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>97200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>91300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>93700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>95800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>95200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>96600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>98100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13400</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -5025,85 +5168,88 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E62" s="3">
         <v>47500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>53700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>53000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>52500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>48700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>61000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>61300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>46900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>51900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>65200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>300</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
       <c r="Y62" s="3">
         <v>0</v>
       </c>
       <c r="Z62" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="3">
         <v>1100</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>3</v>
+      <c r="AB62" s="3">
+        <v>1100</v>
       </c>
       <c r="AC62" s="3" t="s">
         <v>3</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>333500</v>
+      </c>
+      <c r="E66" s="3">
         <v>325400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>326400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>345700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>355400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>352100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>325700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>306000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>244700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>245500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>238800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>223800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>231000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>236800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>257900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>199400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>57700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>56800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>52700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>49100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>52600</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1200</v>
       </c>
       <c r="Y66" s="3">
         <v>1200</v>
       </c>
       <c r="Z66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA66" s="3">
         <v>1100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>200</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,88 +6030,91 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-311400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-313300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-312400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-306500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-302500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-298600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-303200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-306300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-314200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-322000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-325600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-327200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-328700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-328100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-324100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>100</v>
       </c>
-      <c r="Y72" s="3">
-        <v>0</v>
-      </c>
       <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3">
         <v>100</v>
       </c>
-      <c r="AA72" s="3">
-        <v>0</v>
-      </c>
       <c r="AB72" s="3">
         <v>0</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>3</v>
+      <c r="AC72" s="3">
+        <v>0</v>
       </c>
       <c r="AD72" s="3" t="s">
         <v>3</v>
@@ -5948,8 +6122,11 @@
       <c r="AE72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,73 +6398,76 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>289300</v>
+      </c>
+      <c r="E76" s="3">
         <v>286700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>286900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>291800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>295300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>299100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>294400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>290900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>269800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>261700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>262000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>260400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>258800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>259500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>263500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>603400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>35000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>31100</v>
-      </c>
-      <c r="X76" s="3">
-        <v>44800</v>
       </c>
       <c r="Y76" s="3">
         <v>44800</v>
@@ -6290,13 +6476,13 @@
         <v>44800</v>
       </c>
       <c r="AA76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="AB76" s="3">
         <v>44700</v>
       </c>
-      <c r="AB76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC76" s="3" t="s">
-        <v>3</v>
+      <c r="AC76" s="3">
+        <v>0</v>
       </c>
       <c r="AD76" s="3" t="s">
         <v>3</v>
@@ -6304,8 +6490,11 @@
       <c r="AE76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,176 +6582,182 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AE80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-339900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>1300</v>
       </c>
       <c r="S81" s="3">
         <v>1300</v>
       </c>
       <c r="T81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2400</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB81" s="3">
         <v>0</v>
@@ -6570,14 +6765,17 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>3</v>
+      <c r="AD81" s="3">
+        <v>0</v>
       </c>
       <c r="AE81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6618,37 +6817,37 @@
         <v>6400</v>
       </c>
       <c r="E83" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="F83" s="3">
         <v>6700</v>
       </c>
       <c r="G83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H83" s="3">
         <v>6400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>4500</v>
       </c>
       <c r="L83" s="3">
         <v>4500</v>
       </c>
       <c r="M83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N83" s="3">
         <v>4600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>4500</v>
       </c>
       <c r="P83" s="3">
         <v>4500</v>
@@ -6657,10 +6856,10 @@
         <v>4500</v>
       </c>
       <c r="R83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="S83" s="3">
         <v>4600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>700</v>
       </c>
       <c r="T83" s="3">
         <v>700</v>
@@ -6669,20 +6868,20 @@
         <v>700</v>
       </c>
       <c r="V83" s="3">
+        <v>700</v>
+      </c>
+      <c r="W83" s="3">
         <v>600</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z83" s="3">
         <v>500</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>8700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>3</v>
+      <c r="AD89" s="3">
+        <v>0</v>
       </c>
       <c r="AE89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,80 +7485,81 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-900</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-600</v>
       </c>
       <c r="F94" s="3">
         <v>-600</v>
       </c>
       <c r="G94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-94100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7600</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-3400</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-1400</v>
       </c>
       <c r="V94" s="3">
         <v>-1400</v>
       </c>
       <c r="W94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X94" s="3">
         <v>-5000</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
+      <c r="AA94" s="3">
+        <v>0</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD94" s="3" t="s">
-        <v>3</v>
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
       </c>
       <c r="AE94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,13 +7887,14 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -7672,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-100</v>
@@ -7690,7 +7924,7 @@
         <v>-100</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -7699,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-100</v>
@@ -7711,7 +7945,7 @@
         <v>-100</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
@@ -7723,11 +7957,11 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-300</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,74 +8253,77 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-18800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>27600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>26500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>73600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1800</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -8085,22 +8331,25 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>45800</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>3</v>
+      <c r="AD100" s="3">
+        <v>0</v>
       </c>
       <c r="AE100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>-100</v>
       </c>
       <c r="Z102" s="3">
         <v>-100</v>
       </c>
       <c r="AA102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>700</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
-      <c r="AD102" s="3" t="s">
-        <v>3</v>
+      <c r="AD102" s="3">
+        <v>0</v>
       </c>
       <c r="AE102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
